--- a/queens/config/templates/dukes_ch_4.xlsx
+++ b/queens/config/templates/dukes_ch_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\PycharmProjects\uk_energy_data_api\data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\AppData\Local\queens\queens\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C33093-6D4A-47CF-9894-D7DBEFB8845B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3B3470-AC8A-42C7-A15A-ABB6610CB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="1" r:id="rId1"/>
@@ -1639,13 +1639,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3274,11 +3278,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949B93B3-0A15-4722-9C0D-A51F91B252DB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3391,13 +3400,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81112B2-F0D0-42F0-8386-376FFF262FB1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3511,14 +3522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E5A46A-12C4-42FA-B7CA-EBFA6169FABA}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4358,13 +4372,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F55424-57BE-43F4-86C2-EAEB673DBC5E}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
